--- a/report_genetic_algorithm_01.xlsx
+++ b/report_genetic_algorithm_01.xlsx
@@ -507,40 +507,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.452764871986286</v>
+        <v>-2.819455355932379</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0962789757558582</v>
+        <v>1.476311243857019</v>
       </c>
       <c r="C2" t="n">
-        <v>2.119795414449927</v>
+        <v>10.12882339283443</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3205338386511851</v>
+        <v>0.08985675885951021</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-4.365877767558365</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.65479866516606</v>
+      </c>
+      <c r="H2" t="n">
+        <v>32.41844196416002</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02992359730811092</v>
+      </c>
+      <c r="J2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>-2.40275587325</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-2.694627674195382</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13.03425408897698</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.07125423222780586</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>7.397787229091456</v>
+        <v>21.07464474813012</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1771974001196813</v>
+        <v>0.05282985238176174</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -551,3604 +551,3604 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.452764871986286</v>
+        <v>-2.793352546264816</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0962789757558582</v>
+        <v>0.3299063576405254</v>
       </c>
       <c r="C3" t="n">
-        <v>2.119795414449927</v>
+        <v>7.91165665253577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3205338386511851</v>
+        <v>0.1122125816769943</v>
       </c>
       <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-3.984194009311608</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.123316977422443</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17.1356429356</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.05514003576002342</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
-        <v>-0.7364205828698553</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.719931609893811</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.500480017586293</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2221985201783702</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
-        <v>2.816245854217183</v>
+        <v>11.46511831688532</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2700069644470304</v>
+        <v>0.08569848454137964</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.306377459945151</v>
+        <v>-2.15771748693998</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4581541515060662</v>
+        <v>1.324890844230974</v>
       </c>
       <c r="C4" t="n">
-        <v>1.916527294394987</v>
+        <v>6.411080502573645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3428735269928077</v>
+        <v>0.1349330910186079</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.537606001720122</v>
+        <v>-3.401824682621994</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2920071188996882</v>
+        <v>0.1764971332172881</v>
       </c>
       <c r="H4" t="n">
-        <v>2.449500374013835</v>
+        <v>11.60356240933015</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2898970551020411</v>
+        <v>0.07934264674721818</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.148223739276589</v>
+        <v>8.42889174667155</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3189232842742507</v>
+        <v>0.1100658611213847</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.190763189057665</v>
+        <v>-1.535663889098973</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5412276678092551</v>
+        <v>1.899087699737817</v>
       </c>
       <c r="C5" t="n">
-        <v>1.710844360817027</v>
+        <v>5.964797671578054</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3688887545349922</v>
+        <v>0.1435791888227852</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.094592727428071</v>
+        <v>-2.780301141431035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9081052928248345</v>
+        <v>-0.2432960854677213</v>
       </c>
       <c r="H5" t="n">
-        <v>2.022788461794901</v>
+        <v>7.789267422246631</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3308203708724659</v>
+        <v>0.1137751250427182</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.873967402616105</v>
+        <v>6.604776684711347</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3484972166668547</v>
+        <v>0.1325289828892999</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.08151986031317</v>
+        <v>-2.002601629967264</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3119549557711862</v>
+        <v>0.7229475024637954</v>
       </c>
       <c r="C6" t="n">
-        <v>1.267001102682022</v>
+        <v>4.533066379666179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4411113866759613</v>
+        <v>0.180731610897524</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.209443409813723</v>
+        <v>-2.343524146413823</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6056727727342013</v>
+        <v>0.7315644975120769</v>
       </c>
       <c r="H6" t="n">
-        <v>1.829592869173382</v>
+        <v>6.027292038844734</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3534077325732494</v>
+        <v>0.1423023256287492</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.656099308643339</v>
+        <v>5.491606574278183</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3796324653355246</v>
+        <v>0.1555265385587074</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.06028092172635</v>
+        <v>-1.832140371743984</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1378217459607299</v>
+        <v>0.7186390049396545</v>
       </c>
       <c r="C7" t="n">
-        <v>1.143190466636543</v>
+        <v>3.87318036119484</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4665940874444862</v>
+        <v>0.2052047997162192</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.209443409813723</v>
+        <v>-2.0123901835926</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6056727727342013</v>
+        <v>1.15284933479498</v>
       </c>
       <c r="H7" t="n">
-        <v>1.829592869173382</v>
+        <v>5.378775839757086</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3534077325732494</v>
+        <v>0.1567698920798072</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1.594454289153032</v>
+        <v>4.598750565988414</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3900134415433497</v>
+        <v>0.1816681352236892</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.02842251384612</v>
+        <v>-1.824798956524982</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1233780687549544</v>
+        <v>0.3962126306912657</v>
       </c>
       <c r="C8" t="n">
-        <v>1.072875014835276</v>
+        <v>3.486875680453956</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4824217537686258</v>
+        <v>0.2228722325328225</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.228625072906649</v>
+        <v>-2.0123901835926</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4430023393022088</v>
+        <v>1.15284933479498</v>
       </c>
       <c r="H8" t="n">
-        <v>1.705770642402099</v>
+        <v>5.378775839757086</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3695804752734811</v>
+        <v>0.1567698920798072</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1.535472642309477</v>
+        <v>4.502174395803193</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3994629122937234</v>
+        <v>0.18608499342784</v>
       </c>
       <c r="M8" t="n">
         <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9283212343158561</v>
+        <v>-1.742015465819676</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.406568272783536</v>
+        <v>0.5015338400119915</v>
       </c>
       <c r="C9" t="n">
-        <v>1.027078074515902</v>
+        <v>3.286154075832117</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4933209098217963</v>
+        <v>0.233309391661535</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.17631140519673</v>
+        <v>-1.832140371743984</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5516118573471538</v>
+        <v>0.7186390049396545</v>
       </c>
       <c r="H9" t="n">
-        <v>1.687984163161881</v>
+        <v>3.87318036119484</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3720260013822767</v>
+        <v>0.2052047997162192</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1.362979746528372</v>
+        <v>3.504485738738928</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4307866535558259</v>
+        <v>0.2225321681549535</v>
       </c>
       <c r="M9" t="n">
         <v>7</v>
       </c>
       <c r="N9" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9235258185426247</v>
+        <v>-1.297966738275546</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3659006644255379</v>
+        <v>0.4825584864976977</v>
       </c>
       <c r="C10" t="n">
-        <v>0.986783233741875</v>
+        <v>1.917580346560607</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5033261721846808</v>
+        <v>0.3427497724883056</v>
       </c>
       <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.832140371743984</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7186390049396545</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.87318036119484</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2052047997162192</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="n">
-        <v>-1.207263654824921</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4566394899666831</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.666005156058258</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.3750930480113999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
       <c r="K10" t="n">
-        <v>1.176822192384072</v>
+        <v>3.114755997493854</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4662443200447584</v>
+        <v>0.2523606892334032</v>
       </c>
       <c r="M10" t="n">
         <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.9235258185426247</v>
+        <v>-1.030879921541326</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3659006644255379</v>
+        <v>0.3645182272767192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.986783233741875</v>
+        <v>1.195586950654013</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5033261721846808</v>
+        <v>0.455459074258992</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.207263654824921</v>
+        <v>-1.81562218750123</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4566394899666831</v>
+        <v>-0.006820337119220365</v>
       </c>
       <c r="H11" t="n">
-        <v>1.666005156058258</v>
+        <v>3.29653044474517</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3750930480113999</v>
+        <v>0.2327459360198507</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.175455581256158</v>
+        <v>2.246058697699592</v>
       </c>
       <c r="L11" t="n">
-        <v>0.466577805386349</v>
+        <v>0.3441025051394214</v>
       </c>
       <c r="M11" t="n">
         <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.908615450714726</v>
+        <v>-0.6385087885613749</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3809656357501116</v>
+        <v>0.5501875094746891</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9707168529000114</v>
+        <v>0.7103997686520758</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5074295673315263</v>
+        <v>0.5846586384819705</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8639259837090222</v>
+        <v>-1.81562218750123</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.6257795011372094</v>
+        <v>-0.006820337119220365</v>
       </c>
       <c r="H12" t="n">
-        <v>1.137968089371136</v>
+        <v>3.29653044474517</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4677338286625882</v>
+        <v>0.2327459360198507</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>1.026664026716493</v>
+        <v>1.478229233175834</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4939497645278939</v>
+        <v>0.4643805718106959</v>
       </c>
       <c r="M12" t="n">
         <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6847342504373499</v>
+        <v>-0.4423232220713992</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3360962345954619</v>
+        <v>0.643022150573674</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5818216726312472</v>
+        <v>0.609127318912017</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6321825129229462</v>
+        <v>0.6214548645387068</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8639259837090222</v>
+        <v>-0.04995208909144766</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6257795011372094</v>
+        <v>0.8286914327716438</v>
       </c>
       <c r="H13" t="n">
-        <v>1.137968089371136</v>
+        <v>0.6892247019537198</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4677338286625882</v>
+        <v>0.591987554316144</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9104787556554516</v>
+        <v>0.6692003561932941</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5299428954614578</v>
+        <v>0.5993543818717847</v>
       </c>
       <c r="M13" t="n">
         <v>11</v>
       </c>
       <c r="N13" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.5951383838015138</v>
+        <v>-0.2461376555814234</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1912546013245882</v>
+        <v>0.7358567916726588</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3907680184017052</v>
+        <v>0.6020689633458983</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7190271754661266</v>
+        <v>0.6241928549140071</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8674809090609533</v>
+        <v>-0.04995208909144766</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4566612559923311</v>
+        <v>0.8286914327716437</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9610626303097114</v>
+        <v>0.6892247019537197</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5099276201301484</v>
+        <v>0.5919875543161441</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7849927194430314</v>
+        <v>0.645646832649809</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5712204787520168</v>
+        <v>0.6080902046150756</v>
       </c>
       <c r="M14" t="n">
         <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3962049756596272</v>
+        <v>-0.3442304388264113</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1148292756119233</v>
+        <v>0.6894394711231663</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1701641452750048</v>
+        <v>0.5938213793572149</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8545809611736019</v>
+        <v>0.6274228799737258</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.2461376555814234</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7358567916726588</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6020689633458983</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6241928549140071</v>
+      </c>
+      <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
-        <v>-0.8674809090609533</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.4566612559923311</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.9610626303097114</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.5099276201301484</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
-        <v>0.7298417511613563</v>
+        <v>0.5958832753543858</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6051089251788855</v>
+        <v>0.6266153737087962</v>
       </c>
       <c r="M15" t="n">
         <v>13</v>
       </c>
       <c r="N15" t="n">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1596782776209813</v>
+        <v>-0.3442304388264114</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01380715329206106</v>
+        <v>0.6894394711231662</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02568778982603365</v>
+        <v>0.5938213793572148</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9749555468234729</v>
+        <v>0.6274228799737259</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.2951840472039173</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7126481313979125</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5950009809086207</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.626958862075641</v>
+      </c>
+      <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
-        <v>-0.8692583717369189</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.372102133419892</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.8940701145303546</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.5279635597058959</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
       <c r="K16" t="n">
-        <v>0.4606888757012391</v>
+        <v>0.5941162797450663</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7506921139226148</v>
+        <v>0.6273068754992046</v>
       </c>
       <c r="M16" t="n">
         <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1592339119519899</v>
+        <v>-0.3197072430151643</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.007332627351048726</v>
+        <v>0.7010438012605393</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02540920613940342</v>
+        <v>0.5936751325221838</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9752204232346739</v>
+        <v>0.6274804567085005</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8692583717369189</v>
+        <v>-0.3442304388264113</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.372102133419892</v>
+        <v>0.6894394711231663</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8940701145303546</v>
+        <v>0.5938213793572149</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5279635597058959</v>
+        <v>0.6274228799737258</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2647387065299181</v>
+        <v>0.593784817648457</v>
       </c>
       <c r="L17" t="n">
-        <v>0.843881526554056</v>
+        <v>0.6274372741574196</v>
       </c>
       <c r="M17" t="n">
         <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1592339119519899</v>
+        <v>-0.3906543601144867</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.007332627351048726</v>
+        <v>0.5274211212224669</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02540920613940342</v>
+        <v>0.4307838681880232</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9752204232346739</v>
+        <v>0.6989175809386379</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.3377398496534528</v>
+        <v>-0.3442304388264114</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.05096049742126252</v>
+        <v>0.6894394711231662</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1166651783413594</v>
+        <v>0.5938213793572148</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8955235816391729</v>
+        <v>0.6274228799737259</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06987770941519772</v>
+        <v>0.5530254398561592</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9362539909550101</v>
+        <v>0.6453109493986475</v>
       </c>
       <c r="M18" t="n">
         <v>16</v>
       </c>
       <c r="N18" t="n">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.06998094310125849</v>
+        <v>-0.4138663207585244</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01448130768405817</v>
+        <v>0.4464119462721172</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005107040669581941</v>
+        <v>0.3705689572326575</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9949189086704838</v>
+        <v>0.7296239964599224</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.07198058861171974</v>
+        <v>-0.3442304388264115</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1096103205780522</v>
+        <v>0.6894394711231658</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01719562751411301</v>
+        <v>0.5938213793572145</v>
       </c>
       <c r="I19" t="n">
-        <v>0.983095063477478</v>
+        <v>0.627422879973726</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01115133409184748</v>
+        <v>0.4834191407460153</v>
       </c>
       <c r="L19" t="n">
-        <v>0.989006986073981</v>
+        <v>0.6778655123026349</v>
       </c>
       <c r="M19" t="n">
         <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.06998094310125849</v>
+        <v>-0.4486842617245809</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01448130768405817</v>
+        <v>0.3248981838465929</v>
       </c>
       <c r="C20" t="n">
-        <v>0.005107040669581941</v>
+        <v>0.3068763965861467</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9949189086704838</v>
+        <v>0.7651833047197298</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.07198058861171974</v>
+        <v>-0.3258380419679761</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1096103205780522</v>
+        <v>0.6981427187261959</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01719562751411301</v>
+        <v>0.5935736853039288</v>
       </c>
       <c r="I20" t="n">
-        <v>0.983095063477478</v>
+        <v>0.6275204022393721</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01115133409184748</v>
+        <v>0.397664718031746</v>
       </c>
       <c r="L20" t="n">
-        <v>0.989006986073981</v>
+        <v>0.720003247259328</v>
       </c>
       <c r="M20" t="n">
         <v>18</v>
       </c>
       <c r="N20" t="n">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.06998094310125849</v>
+        <v>-0.4691586316840151</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01448130768405817</v>
+        <v>0.2626907613666591</v>
       </c>
       <c r="C21" t="n">
-        <v>0.005107040669581941</v>
+        <v>0.2891162577910124</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9949189086704838</v>
+        <v>0.7757252256779131</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.5059434254008857</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2452842661605992</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3161431209323253</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7597957882358745</v>
+      </c>
+      <c r="J21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="n">
-        <v>-0.07198058861171974</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1096103205780522</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.01719562751411301</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.983095063477478</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
-        <v>0.008315650464464549</v>
+        <v>0.3046968246150972</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9917785112095668</v>
+        <v>0.7665156061318374</v>
       </c>
       <c r="M21" t="n">
         <v>19</v>
       </c>
       <c r="N21" t="n">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.06998094310125849</v>
+        <v>-0.3835090803101346</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01448130768405817</v>
+        <v>0.3409713034005714</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005107040669581941</v>
+        <v>0.2633406444230098</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9949189086704838</v>
+        <v>0.7915521474073351</v>
       </c>
       <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.5264177953603197</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1830768436806654</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3106328259640943</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7629901984672217</v>
+      </c>
+      <c r="J22" t="n">
         <v>2</v>
       </c>
-      <c r="F22" t="n">
-        <v>-0.06898112034602787</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.03308319876293885</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.005852893004581298</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.9941811640198218</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
-        <v>0.005455072303474931</v>
+        <v>0.2858810511430634</v>
       </c>
       <c r="L22" t="n">
-        <v>0.994574644443414</v>
+        <v>0.7778235054605218</v>
       </c>
       <c r="M22" t="n">
         <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.06948103172364317</v>
+        <v>-0.3835090803101346</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.009300945539440338</v>
+        <v>0.3409713034005714</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004914121357309544</v>
+        <v>0.2633406444230098</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9951099091426119</v>
+        <v>0.7915521474073351</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.06898112034602787</v>
+        <v>-0.4507662348255798</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.03308319876293885</v>
+        <v>0.271394008969689</v>
       </c>
       <c r="H23" t="n">
-        <v>0.005852893004581298</v>
+        <v>0.2768449065634694</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9941811640198218</v>
+        <v>0.7831804746681598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005406842475406831</v>
+        <v>0.2703190770696245</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9946223945614461</v>
+        <v>0.787217388786843</v>
       </c>
       <c r="M23" t="n">
         <v>21</v>
       </c>
       <c r="N23" t="n">
-        <v>200</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.06973098741245083</v>
+        <v>-0.3835090803101346</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002590181072308916</v>
+        <v>0.3409713034005714</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004869119643502724</v>
+        <v>0.2633406444230098</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9951544738032848</v>
+        <v>0.7915521474073351</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.07183843813519744</v>
+        <v>-0.3120547227850421</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02394423241954589</v>
+        <v>0.4199185332605243</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005734087459865823</v>
+        <v>0.2737097245881195</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9942986048386326</v>
+        <v>0.785108239888308</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005177560480593254</v>
+        <v>0.2673459032046813</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9948492171816998</v>
+        <v>0.7890581948650311</v>
       </c>
       <c r="M24" t="n">
         <v>22</v>
       </c>
       <c r="N24" t="n">
-        <v>209</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.06387686264893856</v>
+        <v>-0.3084793410599414</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.003327483051864619</v>
+        <v>0.3649979684576327</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004091325725331809</v>
+        <v>0.2283830208389747</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9959253450154284</v>
+        <v>0.8140783314613133</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.07020720704397909</v>
+        <v>-0.3814104788053109</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004113342129541076</v>
+        <v>0.3456562711151067</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004945971504390805</v>
+        <v>0.2649522111036967</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9950783707337153</v>
+        <v>0.7905436989809121</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.004693884129182016</v>
+        <v>0.2553652780101967</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9953281658389284</v>
+        <v>0.7967055608651649</v>
       </c>
       <c r="M25" t="n">
         <v>23</v>
       </c>
       <c r="N25" t="n">
-        <v>219</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.0607116904514183</v>
+        <v>-0.2720137721872566</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.007047895642567465</v>
+        <v>0.3746688171288957</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003735582190457358</v>
+        <v>0.2143682147883066</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9962783204493904</v>
+        <v>0.8234734636679567</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.3597677435917881</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3667718866713129</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2639544461815609</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7911677537280127</v>
+      </c>
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
-        <v>-0.06973098741245083</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.002590181072308916</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.004869119643502724</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.9951544738032848</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
       <c r="K26" t="n">
-        <v>0.004293221960258478</v>
+        <v>0.2423150769198951</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9957254381567422</v>
+        <v>0.8051911216411749</v>
       </c>
       <c r="M26" t="n">
         <v>24</v>
       </c>
       <c r="N26" t="n">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.05620204197090204</v>
+        <v>-0.2065374097226415</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.01186693400000566</v>
+        <v>0.3759394222926886</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003299493644259525</v>
+        <v>0.1839881508486987</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9967113572117186</v>
+        <v>0.844603047153121</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.06973098741245083</v>
+        <v>-0.3845583810625465</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002590181072308916</v>
+        <v>0.3386288195433036</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004869119643502724</v>
+        <v>0.262554625870738</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9951544738032848</v>
+        <v>0.792044937707417</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.003693026095892066</v>
+        <v>0.2136281899999526</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9963210178063389</v>
+        <v>0.8244706934226929</v>
       </c>
       <c r="M27" t="n">
         <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>237</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.04961615161195073</v>
+        <v>-0.1175269240526889</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.01852430613970088</v>
+        <v>0.3945947236673811</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002804912418737441</v>
+        <v>0.1695175738234234</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9972029331089214</v>
+        <v>0.8550534189330468</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.06973098741245083</v>
+        <v>-0.1957377213414667</v>
       </c>
       <c r="G28" t="n">
-        <v>0.002590181072308916</v>
+        <v>0.3746004922601893</v>
       </c>
       <c r="H28" t="n">
-        <v>0.004869119643502724</v>
+        <v>0.1786387843575258</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9951544738032848</v>
+        <v>0.8484363600380742</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.003567188576604244</v>
+        <v>0.17296020694653</v>
       </c>
       <c r="L28" t="n">
-        <v>0.996446089595676</v>
+        <v>0.8525527203142442</v>
       </c>
       <c r="M28" t="n">
         <v>26</v>
       </c>
       <c r="N28" t="n">
-        <v>246</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.03955873371170068</v>
+        <v>-0.09209611373555684</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.02908154974570578</v>
+        <v>0.4009652711192533</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002410629948485204</v>
+        <v>0.169254842808929</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9975951672134512</v>
+        <v>0.8552455490350385</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.05614251451696101</v>
+        <v>-0.1547139563596964</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01205732913215967</v>
+        <v>0.3854801970153602</v>
       </c>
       <c r="H29" t="n">
-        <v>0.003297361122088405</v>
+        <v>0.1725313905834709</v>
       </c>
       <c r="I29" t="n">
-        <v>0.996713475735249</v>
+        <v>0.8528556318670356</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002732374998389041</v>
+        <v>0.1709587994498236</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9972752025204115</v>
+        <v>0.8540025579255391</v>
       </c>
       <c r="M29" t="n">
         <v>27</v>
       </c>
       <c r="N29" t="n">
-        <v>258</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.03466396153294296</v>
+        <v>-0.1245422611415645</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.03393178250136168</v>
+        <v>0.34919295873631</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002352956092877064</v>
+        <v>0.1374464972412719</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9976525673131661</v>
+        <v>0.8791622308612929</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03126684330907051</v>
+        <v>-0.1234050350476266</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.03759366005247883</v>
+        <v>0.3932227340673068</v>
       </c>
       <c r="H30" t="n">
-        <v>0.002390898766655309</v>
+        <v>0.1698529212624738</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9976148039955302</v>
+        <v>0.8548083112198642</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.002362441761321625</v>
+        <v>0.1614160973079985</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9976431264837571</v>
+        <v>0.8611418760571898</v>
       </c>
       <c r="M30" t="n">
         <v>28</v>
       </c>
       <c r="N30" t="n">
-        <v>270</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.03636252064487919</v>
+        <v>-0.1245422611415645</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.03210084372580311</v>
+        <v>0.34919295873631</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002352697075557698</v>
+        <v>0.1374464972412719</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9976528251159279</v>
+        <v>0.8791622308612929</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.03466396153294296</v>
+        <v>-0.1234050350476266</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.03393178250136168</v>
+        <v>0.3932227340673068</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002352956092877064</v>
+        <v>0.1698529212624738</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9976525673131661</v>
+        <v>0.8548083112198642</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00235276182988754</v>
+        <v>0.16137121108517</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9976527606652374</v>
+        <v>0.8611747129004244</v>
       </c>
       <c r="M31" t="n">
         <v>29</v>
       </c>
       <c r="N31" t="n">
-        <v>279</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.03551324108891107</v>
+        <v>-0.1251108741885334</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0330163131135824</v>
+        <v>0.3271780710708116</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002351267224253235</v>
+        <v>0.1226982210298361</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9976542482649178</v>
+        <v>0.8907113071602746</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.03636252064487919</v>
+        <v>-0.08669759432496452</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.03210084372580311</v>
+        <v>0.402116613456434</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002352697075557698</v>
+        <v>0.1692142436794072</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9976528251159279</v>
+        <v>0.8552752460944146</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>0.002351624687079351</v>
+        <v>0.1575224643515252</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9976538924776703</v>
+        <v>0.864180185105071</v>
       </c>
       <c r="M32" t="n">
         <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>288</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.03551324108891107</v>
+        <v>-0.1356356220218469</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0330163131135824</v>
+        <v>0.2918710946567197</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002351267224253235</v>
+        <v>0.1035857578573652</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9976542482649178</v>
+        <v>0.9061371016073286</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.03593788086689513</v>
+        <v>-0.1040613785219065</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.03255857841969276</v>
+        <v>0.3977920238989953</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00235159230991443</v>
+        <v>0.1690672647775383</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9976539247027132</v>
+        <v>0.8553827740530311</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>0.002351348495668534</v>
+        <v>0.1526951671219122</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9976541673743666</v>
+        <v>0.8680726151146549</v>
       </c>
       <c r="M33" t="n">
         <v>31</v>
       </c>
       <c r="N33" t="n">
-        <v>301</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.03551324108891107</v>
+        <v>-0.1501407511161368</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0330163131135824</v>
+        <v>0.239250620809181</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002351267224253235</v>
+        <v>0.07978310470329623</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9976542482649178</v>
+        <v>0.9261119160359348</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0357255609779031</v>
+        <v>-0.09972043247267098</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.03278744576663758</v>
+        <v>0.3988731712883549</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002351332307086073</v>
+        <v>0.1690439714261659</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9976541834870672</v>
+        <v>0.8553998176647351</v>
       </c>
       <c r="J34" t="n">
         <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>0.002351283494961444</v>
+        <v>0.1209516637593861</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9976542320704551</v>
+        <v>0.8932914855184154</v>
       </c>
       <c r="M34" t="n">
         <v>32</v>
       </c>
       <c r="N34" t="n">
-        <v>313</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.03551324108891107</v>
+        <v>-0.1437540197741799</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.0330163131135824</v>
+        <v>0.2407346998223417</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002351267224253235</v>
+        <v>0.07861841389978827</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9976542482649178</v>
+        <v>0.9271119305153152</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.03561940103340709</v>
+        <v>-0.08502582172854795</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.03290187944010999</v>
+        <v>0.3833079684340371</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002351275400670214</v>
+        <v>0.1541543890256436</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9976542401268155</v>
+        <v>0.8664352096292912</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>0.002351269268357479</v>
+        <v>0.115895691931291</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9976542462303922</v>
+        <v>0.8971249706181041</v>
       </c>
       <c r="M35" t="n">
         <v>33</v>
       </c>
       <c r="N35" t="n">
-        <v>320</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.03556632106115908</v>
+        <v>-0.1656854900377822</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.03295909627684619</v>
+        <v>0.1729900836283074</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002351265221211865</v>
+        <v>0.05737725064278881</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9976542502585728</v>
+        <v>0.9457362539170304</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.03551324108891107</v>
+        <v>-0.107323708006189</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0330163131135824</v>
+        <v>0.3726819140985969</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002351267224253235</v>
+        <v>0.1504101873963917</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9976542482649178</v>
+        <v>0.869255167379211</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>0.002351266723492892</v>
+        <v>0.08166155585147522</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9976542487633315</v>
+        <v>0.9257002590825721</v>
       </c>
       <c r="M36" t="n">
         <v>34</v>
       </c>
       <c r="N36" t="n">
-        <v>329</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.02997584314092799</v>
+        <v>-0.159287729166051</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.02787262458398436</v>
+        <v>0.1753412251329752</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001675434373209249</v>
+        <v>0.05611712589400991</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9983273680119172</v>
+        <v>0.9468646757844151</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.03551324108891107</v>
+        <v>-0.107323708006189</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0330163131135824</v>
+        <v>0.3726819140985969</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002351267224253235</v>
+        <v>0.1504101873963917</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9976542482649178</v>
+        <v>0.869255167379211</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>0.002127282810908127</v>
+        <v>0.08046570282571514</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9978773085785655</v>
+        <v>0.9267682457472953</v>
       </c>
       <c r="M37" t="n">
         <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>343</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.02720714416693645</v>
+        <v>-0.1560888487301854</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.02530078031918534</v>
+        <v>0.1765167958853091</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001380358178480141</v>
+        <v>0.05552190792753058</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9986215445837274</v>
+        <v>0.9473986209944752</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.03551324108891107</v>
+        <v>-0.107323708006189</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0330163131135824</v>
+        <v>0.3726819140985969</v>
       </c>
       <c r="H38" t="n">
-        <v>0.002351267224253235</v>
+        <v>0.1504101873963917</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9976542482649178</v>
+        <v>0.869255167379211</v>
       </c>
       <c r="J38" t="n">
         <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>0.001784472387256747</v>
+        <v>0.0803168983340953</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9982188818653612</v>
+        <v>0.9269017320498103</v>
       </c>
       <c r="M38" t="n">
         <v>36</v>
       </c>
       <c r="N38" t="n">
-        <v>355</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.02305409570594914</v>
+        <v>-0.1804714190921836</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.02144301392198681</v>
+        <v>0.07843423677866515</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0009912941748775829</v>
+        <v>0.03872186260819829</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9990096875161191</v>
+        <v>0.9627216254879156</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.02720714416693645</v>
+        <v>-0.1633098989042374</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.02530078031918534</v>
+        <v>0.1744710264598336</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001380358178480141</v>
+        <v>0.05711026215406022</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9986215445837274</v>
+        <v>0.9459751132888565</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.001145503802890063</v>
+        <v>0.04961587386663575</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9988558273492031</v>
+        <v>0.9527831735611885</v>
       </c>
       <c r="M39" t="n">
         <v>37</v>
       </c>
       <c r="N39" t="n">
-        <v>367</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.02179221112396666</v>
+        <v>-0.169710551411169</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.02017253509794063</v>
+        <v>0.08330068521870571</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0008818316379491827</v>
+        <v>0.03574067541818893</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9991189453039566</v>
+        <v>0.9654926409028414</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.02305409570594914</v>
+        <v>-0.1633098989042374</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.02144301392198681</v>
+        <v>0.1744710264598336</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0009912941748775829</v>
+        <v>0.05711026215406022</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9990096875161191</v>
+        <v>0.9459751132888565</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0009474166053875724</v>
+        <v>0.04418409828219447</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9990534819788075</v>
+        <v>0.9577567662582581</v>
       </c>
       <c r="M40" t="n">
         <v>38</v>
       </c>
       <c r="N40" t="n">
-        <v>381</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.02086605982736462</v>
+        <v>-0.1729108776646348</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.02000661615070074</v>
+        <v>0.03771551459814174</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0008356571425206395</v>
+        <v>0.03132063165615693</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9991650405972681</v>
+        <v>0.9696305584366519</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.02142541557948072</v>
+        <v>-0.192322340566719</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.02141721325225359</v>
+        <v>0.09514376153889645</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0009177454562459622</v>
+        <v>0.04604021804083143</v>
       </c>
       <c r="I41" t="n">
-        <v>0.999083096028208</v>
+        <v>0.9559861874842041</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0008954369499035999</v>
+        <v>0.03911387643849145</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9991053653366506</v>
+        <v>0.9624015329219965</v>
       </c>
       <c r="M41" t="n">
         <v>39</v>
       </c>
       <c r="N41" t="n">
-        <v>393</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.02058638195130657</v>
+        <v>-0.1632051462135926</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.01930131759992432</v>
+        <v>0.00900139112776438</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0007963399829382291</v>
+        <v>0.02671694479283515</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9992042936698271</v>
+        <v>0.9739782761662458</v>
       </c>
       <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.1680206868245448</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02465398254733463</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.02883877005643605</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9719695924222858</v>
+      </c>
+      <c r="J42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="n">
-        <v>-0.02142541557948072</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-0.02141721325225359</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0009177454562459622</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.999083096028208</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
       <c r="K42" t="n">
-        <v>0.0008829856575268858</v>
+        <v>0.02765693227029352</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9991177958286511</v>
+        <v>0.9730879198508545</v>
       </c>
       <c r="M42" t="n">
         <v>40</v>
       </c>
       <c r="N42" t="n">
-        <v>400</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.0201668651372195</v>
+        <v>-0.1632051462135926</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.01824336977375968</v>
+        <v>0.00900139112776438</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0007395229901649273</v>
+        <v>0.02671694479283515</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9992610234999459</v>
+        <v>0.9739782761662458</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.1511374635076922</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.06929117405502508</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.02764379967746277</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9730998234153322</v>
+      </c>
+      <c r="J43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="n">
-        <v>-0.02142541557948072</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-0.02141721325225359</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.0009177454562459622</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.999083096028208</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3</v>
-      </c>
       <c r="K43" t="n">
-        <v>0.0008679458347634803</v>
+        <v>0.0273581896755502</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9991328123438641</v>
+        <v>0.9733704775991161</v>
       </c>
       <c r="M43" t="n">
         <v>41</v>
       </c>
       <c r="N43" t="n">
-        <v>406</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.01931618316188079</v>
+        <v>-0.1571713048606424</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.01700843838310013</v>
+        <v>0.03914628259139473</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0006624019081750404</v>
+        <v>0.02623525051232233</v>
       </c>
       <c r="D44" t="n">
-        <v>0.999338036577659</v>
+        <v>0.9744354420692284</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.02142541557948072</v>
+        <v>-0.153951334060501</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.02141721325225359</v>
+        <v>0.06185164213707667</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0009177454562459622</v>
+        <v>0.02752663889406097</v>
       </c>
       <c r="I44" t="n">
-        <v>0.999083096028208</v>
+        <v>0.9732107783369118</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0008486655642660087</v>
+        <v>0.02674075954676624</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9991520656132923</v>
+        <v>0.9739558958831784</v>
       </c>
       <c r="M44" t="n">
         <v>42</v>
       </c>
       <c r="N44" t="n">
-        <v>419</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.01826156695308082</v>
+        <v>-0.140383961950119</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01480405094852339</v>
+        <v>0.03835296307817646</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0005526447520683298</v>
+        <v>0.02117860654968842</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9994476604954603</v>
+        <v>0.9792606245236123</v>
       </c>
       <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1599851754134512</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03170675067344633</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.02660057439034084</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9740886815632868</v>
+      </c>
+      <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="F45" t="n">
-        <v>-0.02186822908789691</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-0.02071323255507878</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.000907257446321516</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.9990935649236511</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2</v>
-      </c>
       <c r="K45" t="n">
-        <v>0.0007293968405046952</v>
+        <v>0.02496580009620482</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9992711655272891</v>
+        <v>0.9756468098190818</v>
       </c>
       <c r="M45" t="n">
         <v>43</v>
       </c>
       <c r="N45" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.01612612575436063</v>
+        <v>-0.1326937581330595</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.01237744566812681</v>
+        <v>0.03609642034208023</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0004132530931128842</v>
+        <v>0.01891058500898703</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9995869176144606</v>
+        <v>0.9814403881094039</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.1587812902607131</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.02779360281855376</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02598398249449235</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9746740856213788</v>
+      </c>
+      <c r="J46" t="n">
         <v>2</v>
       </c>
-      <c r="F46" t="n">
-        <v>-0.01837227033018487</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-0.01462805577422969</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.0005515203328193658</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.999448783674192</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
       <c r="K46" t="n">
-        <v>0.0004599679662891973</v>
+        <v>0.02242405387751889</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9995402466701302</v>
+        <v>0.978078663907622</v>
       </c>
       <c r="M46" t="n">
         <v>44</v>
       </c>
       <c r="N46" t="n">
-        <v>444</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.01483699840079244</v>
+        <v>-0.1196499920692326</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.01151613337651592</v>
+        <v>0.04024782910384347</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0003527578494908214</v>
+        <v>0.01593600834973962</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9996473665447285</v>
+        <v>0.9843139644438574</v>
       </c>
       <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.1176882728500608</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05253045036642799</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.01660997778213012</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9836614059028155</v>
+      </c>
+      <c r="J47" t="n">
         <v>1</v>
       </c>
-      <c r="F47" t="n">
-        <v>-0.01512977553343207</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-0.0128166651934382</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.0003931770143727299</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.9996069775130352</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
       <c r="K47" t="n">
-        <v>0.0003822497254164051</v>
+        <v>0.01627299306593487</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9996178966236526</v>
+        <v>0.9839876851733365</v>
       </c>
       <c r="M47" t="n">
         <v>45</v>
       </c>
       <c r="N47" t="n">
-        <v>456</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.01196970912643841</v>
+        <v>-0.1206308516788185</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.008941089791455466</v>
+        <v>0.0341065184725512</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0002232170232304121</v>
+        <v>0.01571505697907559</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9997768327914897</v>
+        <v>0.9845280850460019</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01512977553343207</v>
+        <v>-0.1176882728500608</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.0128166651934382</v>
+        <v>0.05253045036642799</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0003931770143727299</v>
+        <v>0.01660997778213012</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9996069775130352</v>
+        <v>0.9836614059028155</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0003281252932829047</v>
+        <v>0.01593878717983922</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9996719864358262</v>
+        <v>0.9843114152602053</v>
       </c>
       <c r="M48" t="n">
         <v>46</v>
       </c>
       <c r="N48" t="n">
-        <v>464</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.01038967592294158</v>
+        <v>-0.1221021410931974</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.007003302090464102</v>
+        <v>0.02489455252561281</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0001569916059540508</v>
+        <v>0.01552867160499358</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9998430330365417</v>
+        <v>0.9847087807176814</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.01680615697383474</v>
+        <v>-0.1206308516788185</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.008425435496325882</v>
+        <v>0.0341065184725512</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0003534348755319224</v>
+        <v>0.01571505697907559</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9996466899965453</v>
+        <v>0.9845280850460019</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.00028539478558919</v>
+        <v>0.01562186429203458</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9997146924033462</v>
+        <v>0.9846184328818417</v>
       </c>
       <c r="M49" t="n">
         <v>47</v>
       </c>
       <c r="N49" t="n">
-        <v>476</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.007181435397494992</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.006292235387533212</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="C50" t="n">
-        <v>9.116524054051929e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="D50" t="n">
-        <v>0.999908843069803</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.01434648568575085</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.0100884631764435</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0003075987407939104</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9996924958470963</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0001902280359613423</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9998098175374799</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="M50" t="n">
         <v>48</v>
       </c>
       <c r="N50" t="n">
-        <v>486</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.003598910253367065</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.004394121493078067</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="C51" t="n">
-        <v>3.226045870772121e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9999677405819959</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.004004595734034955</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.004936711690426098</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H51" t="n">
-        <v>4.040790930744066e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9999595937234257</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>3.74523532565883e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9999625490589165</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="M51" t="n">
         <v>49</v>
       </c>
       <c r="N51" t="n">
-        <v>498</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.003598910253367065</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.004394121493078067</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="C52" t="n">
-        <v>3.226045870772121e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9999677405819959</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.004933677406782806</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.003492877499568937</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H52" t="n">
-        <v>3.654136598119406e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9999634599692413</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>3.452564511928488e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9999654755509535</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="M52" t="n">
         <v>50</v>
       </c>
       <c r="N52" t="n">
-        <v>510</v>
+        <v>549</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.004629413296281889</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.003085934851557913</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="C53" t="n">
-        <v>3.09544613758513e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9999690464967731</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.004730834666448861</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.003221582400894921</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H53" t="n">
-        <v>3.275938980703019e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9999672416833354</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>3.190628459464757e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9999680947337994</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="M53" t="n">
         <v>51</v>
       </c>
       <c r="N53" t="n">
-        <v>519</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.002771914600768475</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.003781462320942775</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="C54" t="n">
-        <v>2.198296783866337e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9999780175154015</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.004861683714468852</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.002724976303843623</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H54" t="n">
-        <v>3.10614643960409e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9999689395003885</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>2.828345309154918e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9999717173602432</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="M54" t="n">
         <v>52</v>
       </c>
       <c r="N54" t="n">
-        <v>532</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.002267636907917442</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.003689523896066527</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="C55" t="n">
-        <v>1.87547637257953e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9999812455880087</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.004321076850469696</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.003345157737269447</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H55" t="n">
-        <v>2.986178543487876e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9999701391062648</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>2.425809971399921e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9999757425190167</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="M55" t="n">
         <v>53</v>
       </c>
       <c r="N55" t="n">
-        <v>544</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.002267636907917442</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.003689523896066527</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="C56" t="n">
-        <v>1.87547637257953e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9999812455880087</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.004108841023016859</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.003565008817053787</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H56" t="n">
-        <v>2.959186241809748e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9999704090132344</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>2.417331307194639e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9999758273006216</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="M56" t="n">
         <v>54</v>
       </c>
       <c r="N56" t="n">
-        <v>551</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.001347034850367733</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.003751781435572896</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="C57" t="n">
-        <v>1.589036682841464e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9999841098856714</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.001347034850367733</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.003751781435572896</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H57" t="n">
-        <v>1.589036682841464e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9999841098856714</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1.589036682841464e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9999841098856714</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="M57" t="n">
         <v>55</v>
       </c>
       <c r="N57" t="n">
-        <v>563</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.0009968374522050757</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.003807589921575791</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="C58" t="n">
-        <v>1.549142591700425e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999845088140636</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.001347034850367733</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.003751781435572896</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H58" t="n">
-        <v>1.589036682841464e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9999841098856714</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1.579063160056205e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9999842096177695</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="M58" t="n">
         <v>56</v>
       </c>
       <c r="N58" t="n">
-        <v>577</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.0008217387531237468</v>
+        <v>-0.1156110066628786</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.003835494164577238</v>
+        <v>0.01686998173096385</v>
       </c>
       <c r="C59" t="n">
-        <v>1.538627006489142e-05</v>
+        <v>0.01365050114520721</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9999846139666687</v>
+        <v>0.9865333257076427</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.001347034850367733</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.003751781435572896</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H59" t="n">
-        <v>1.589036682841464e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9999841098856714</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1.576434263753384e-05</v>
+        <v>0.01503818604241221</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9999842359059208</v>
+        <v>0.9851852248817117</v>
       </c>
       <c r="M59" t="n">
         <v>57</v>
       </c>
       <c r="N59" t="n">
-        <v>590</v>
+        <v>617</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.0005590907045017535</v>
+        <v>-0.1119976170941244</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.003877350529079409</v>
+        <v>0.01516068782037398</v>
       </c>
       <c r="C60" t="n">
-        <v>1.534642954121264e-05</v>
+        <v>0.01277331268994895</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9999846538059681</v>
+        <v>0.9873877870497765</v>
       </c>
       <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.1228377858003868</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02028856955214361</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.01550074767481388</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.9847358579397347</v>
+      </c>
+      <c r="J60" t="n">
         <v>1</v>
       </c>
-      <c r="F60" t="n">
-        <v>-0.001347034850367733</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-0.003751781435572896</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1.589036682841464e-05</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.9999841098856714</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
       <c r="K60" t="n">
-        <v>1.575438250661414e-05</v>
+        <v>0.01435632729619598</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9999842458657456</v>
+        <v>0.9858482071592222</v>
       </c>
       <c r="M60" t="n">
         <v>58</v>
       </c>
       <c r="N60" t="n">
-        <v>599</v>
+        <v>626</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.0005590907045017535</v>
+        <v>-0.1065775327409933</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.003877350529079409</v>
+        <v>0.01259674695448916</v>
       </c>
       <c r="C61" t="n">
-        <v>1.534642954121264e-05</v>
+        <v>0.01151744851899292</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9999846538059681</v>
+        <v>0.9886136926892798</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.001347034850367733</v>
+        <v>-0.1228377858003868</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.003751781435572896</v>
+        <v>0.02028856955214361</v>
       </c>
       <c r="H61" t="n">
-        <v>1.589036682841464e-05</v>
+        <v>0.01550074767481388</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9999841098856714</v>
+        <v>0.9847358579397347</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>1.575438250661414e-05</v>
+        <v>0.01325384987593003</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9999842458657456</v>
+        <v>0.9869216890092144</v>
       </c>
       <c r="M61" t="n">
         <v>59</v>
       </c>
       <c r="N61" t="n">
-        <v>609</v>
+        <v>632</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.0005590907045017535</v>
+        <v>-0.1020607957800506</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.003877350529079409</v>
+        <v>0.01046012956625182</v>
       </c>
       <c r="C62" t="n">
-        <v>1.534642954121264e-05</v>
+        <v>0.01052582034579997</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9999846538059681</v>
+        <v>0.9895838185092607</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.001347034850367733</v>
+        <v>-0.1156110066628786</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.003751781435572896</v>
+        <v>0.01686998173096385</v>
       </c>
       <c r="H62" t="n">
-        <v>1.589036682841464e-05</v>
+        <v>0.01365050114520721</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9999841098856714</v>
+        <v>0.9865333257076427</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>1.564660137232336e-05</v>
+        <v>0.01185987585489932</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9999843536435011</v>
+        <v>0.9882806067049774</v>
       </c>
       <c r="M62" t="n">
         <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>618</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.0008773442023197593</v>
+        <v>-0.09528569033863661</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.003131151285801559</v>
+        <v>0.007255203483895798</v>
       </c>
       <c r="C63" t="n">
-        <v>1.057384122392085e-05</v>
+        <v>0.009132000760903281</v>
       </c>
       <c r="D63" t="n">
-        <v>0.999989426270581</v>
+        <v>0.9909506380195876</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.0007560767409682484</v>
+        <v>-0.1074808801331818</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.00384595825570278</v>
+        <v>0.01302407043213663</v>
       </c>
       <c r="H63" t="n">
-        <v>1.536304694284154e-05</v>
+        <v>0.01172176600482465</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9999846371890767</v>
+        <v>0.9884140418851396</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>1.416159116270414e-05</v>
+        <v>0.01021341664452776</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9999858386136756</v>
+        <v>0.9898908336834792</v>
       </c>
       <c r="M63" t="n">
         <v>61</v>
       </c>
       <c r="N63" t="n">
-        <v>631</v>
+        <v>652</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.0009379779329955147</v>
+        <v>-0.08824926942560128</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.002773747800850949</v>
+        <v>0.003597729888747903</v>
       </c>
       <c r="C64" t="n">
-        <v>8.573479465512014e-06</v>
+        <v>0.007800877214504755</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9999914265940384</v>
+        <v>0.9922595054331904</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.000657583722735001</v>
+        <v>-0.099350753603485</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.003861654392391094</v>
+        <v>0.00917815913330941</v>
       </c>
       <c r="H64" t="n">
-        <v>1.534479099867945e-05</v>
+        <v>0.009954810846656737</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9999846554444602</v>
+        <v>0.9901433106315801</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1.198604561945056e-05</v>
+        <v>0.00909044207216198</v>
       </c>
       <c r="L64" t="n">
-        <v>0.9999880141093263</v>
+        <v>0.9909920726010717</v>
       </c>
       <c r="M64" t="n">
         <v>62</v>
       </c>
       <c r="N64" t="n">
-        <v>643</v>
+        <v>659</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.001078175038125772</v>
+        <v>-0.07933061245456373</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.002229794505080877</v>
+        <v>0.001817177232029876</v>
       </c>
       <c r="C65" t="n">
-        <v>6.134444947726381e-06</v>
+        <v>0.006296648205508789</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9999938655926834</v>
+        <v>0.9937427514871114</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.001036470951228762</v>
+        <v>-0.09445917578516004</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.002758051664162635</v>
+        <v>0.006496344840966698</v>
       </c>
       <c r="H65" t="n">
-        <v>8.681121014931334e-06</v>
+        <v>0.008964738386304519</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9999913189543462</v>
+        <v>0.9911149140844681</v>
       </c>
       <c r="J65" t="n">
         <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>6.898073476213096e-06</v>
+        <v>0.007320891696737509</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9999931019752095</v>
+        <v>0.9927332923024834</v>
       </c>
       <c r="M65" t="n">
         <v>63</v>
       </c>
       <c r="N65" t="n">
-        <v>653</v>
+        <v>672</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.001099027081574276</v>
+        <v>-0.07663038919730378</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.001965665925539998</v>
+        <v>0.001841269302457837</v>
       </c>
       <c r="C66" t="n">
-        <v>5.071703056862687e-06</v>
+        <v>0.005875606821174425</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999949283226652</v>
+        <v>0.9941587142770636</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.001078175038125772</v>
+        <v>-0.08763383320773115</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.002229794505080877</v>
+        <v>-0.0007358713533159069</v>
       </c>
       <c r="H66" t="n">
-        <v>6.134444947726381e-06</v>
+        <v>0.007680230229329073</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9999938655926834</v>
+        <v>0.992378306134297</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>5.717245275321476e-06</v>
+        <v>0.006373854274129551</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9999942827875672</v>
+        <v>0.9936670755921664</v>
       </c>
       <c r="M66" t="n">
         <v>64</v>
       </c>
       <c r="N66" t="n">
-        <v>665</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.001109453103298529</v>
+        <v>-0.0711286671920901</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.001833601635769558</v>
+        <v>0.003129839630344709</v>
       </c>
       <c r="C67" t="n">
-        <v>4.592981147115536e-06</v>
+        <v>0.00506908319263479</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999954070399482</v>
+        <v>0.9949564828155567</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.001053410695555738</v>
+        <v>-0.08763383320773115</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.002185967533851844</v>
+        <v>-0.0007358713533159069</v>
       </c>
       <c r="H67" t="n">
-        <v>5.888128152565538e-06</v>
+        <v>0.007680230229329073</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9999941119065172</v>
+        <v>0.992378306134297</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>5.291908322436049e-06</v>
+        <v>0.006172223366994642</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9999947081199309</v>
+        <v>0.9938665177267897</v>
       </c>
       <c r="M67" t="n">
         <v>65</v>
       </c>
       <c r="N67" t="n">
-        <v>675</v>
+        <v>692</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.0009922000526552165</v>
+        <v>-0.06786967328137722</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.001461904780115313</v>
+        <v>0.003533755338111444</v>
       </c>
       <c r="C68" t="n">
-        <v>3.121626530613017e-06</v>
+        <v>0.00461877997811052</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9999968783832139</v>
+        <v>0.995402455070359</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.001304633619517651</v>
+        <v>-0.08763383320773115</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.001953250742524386</v>
+        <v>-0.0007358713533159069</v>
       </c>
       <c r="H68" t="n">
-        <v>5.517257344347793e-06</v>
+        <v>0.007680230229329073</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9999944827730957</v>
+        <v>0.992378306134297</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>4.365220539583117e-06</v>
+        <v>0.005805859690530286</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9999956347992772</v>
+        <v>0.9942289960362941</v>
       </c>
       <c r="M68" t="n">
         <v>66</v>
       </c>
       <c r="N68" t="n">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.0008359832692239992</v>
+        <v>-0.06287608418426957</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.001216231798910777</v>
+        <v>0.005062695122175017</v>
       </c>
       <c r="C69" t="n">
-        <v>2.17808781510419e-06</v>
+        <v>0.003979032844247449</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9999978219169291</v>
+        <v>0.9960367371089663</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.001030436102116493</v>
+        <v>-0.07078904913891804</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.001806647310813919</v>
+        <v>-0.005956594406211387</v>
       </c>
       <c r="H69" t="n">
-        <v>4.325773066216195e-06</v>
+        <v>0.005046570494912262</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9999956742456461</v>
+        <v>0.9949787694987833</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>3.11737748597874e-06</v>
+        <v>0.004595420502640084</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9999968826329632</v>
+        <v>0.9954257497926361</v>
       </c>
       <c r="M69" t="n">
         <v>67</v>
       </c>
       <c r="N69" t="n">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.0008758556114783319</v>
+        <v>-0.05891960170694534</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.0009943257588144396</v>
+        <v>0.01057233988636822</v>
       </c>
       <c r="C70" t="n">
-        <v>1.755806766799994e-06</v>
+        <v>0.003583293835977968</v>
       </c>
       <c r="D70" t="n">
-        <v>0.999998244196316</v>
+        <v>0.9964295003135399</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.0009282831890151041</v>
+        <v>-0.06849101220720728</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.001625861054494159</v>
+        <v>0.006802936139806844</v>
       </c>
       <c r="H70" t="n">
-        <v>3.505133847528911e-06</v>
+        <v>0.004737298693290107</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9999964948784383</v>
+        <v>0.9952850374924359</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>2.368711637983117e-06</v>
+        <v>0.003904400872021503</v>
       </c>
       <c r="L70" t="n">
-        <v>0.9999976312944263</v>
+        <v>0.9961110135670657</v>
       </c>
       <c r="M70" t="n">
         <v>68</v>
       </c>
       <c r="N70" t="n">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.0008503173832029847</v>
+        <v>-0.05413389645681437</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.0009491291947344997</v>
+        <v>0.01245704175964891</v>
       </c>
       <c r="C71" t="n">
-        <v>1.623885880474531e-06</v>
+        <v>0.003085656634998736</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9999983761167566</v>
+        <v>0.996923835352855</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.0009269320680290261</v>
+        <v>-0.06006026494546027</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.001084718886974319</v>
+        <v>0.002385427827749672</v>
       </c>
       <c r="H71" t="n">
-        <v>2.035818122499373e-06</v>
+        <v>0.003612925691240287</v>
       </c>
       <c r="I71" t="n">
-        <v>0.999997964186022</v>
+        <v>0.9964000805502262</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1.738326676023106e-06</v>
+        <v>0.003464401691487717</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9999982616763753</v>
+        <v>0.9965476070217991</v>
       </c>
       <c r="M71" t="n">
         <v>69</v>
       </c>
       <c r="N71" t="n">
-        <v>715</v>
+        <v>729</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.0006531990670566081</v>
+        <v>-0.05413389645681437</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.0009463058591477794</v>
+        <v>0.01245704175964891</v>
       </c>
       <c r="C72" t="n">
-        <v>1.32216380026104e-06</v>
+        <v>0.003085656634998736</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9999986778379479</v>
+        <v>0.996923835352855</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.0008805594201402537</v>
+        <v>-0.05919850109606874</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.0009179852065422068</v>
+        <v>0.007170251782506508</v>
       </c>
       <c r="H72" t="n">
-        <v>1.618081731828078e-06</v>
+        <v>0.00355587504264579</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9999983819208863</v>
+        <v>0.9964567244026201</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1.470271319511091e-06</v>
+        <v>0.003435876367190469</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9999985297308531</v>
+        <v>0.9965759289479961</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
       <c r="N72" t="n">
-        <v>728</v>
+        <v>738</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.0006191566355958336</v>
+        <v>-0.05160159413718718</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.0009320756321259347</v>
+        <v>0.01510043674822011</v>
       </c>
       <c r="C73" t="n">
-        <v>1.252119923405313e-06</v>
+        <v>0.002890747707485986</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9999987478816446</v>
+        <v>0.9971175846281423</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.0007212839299781571</v>
+        <v>-0.05919850109606874</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0009747663131914688</v>
+        <v>0.007170251782506508</v>
       </c>
       <c r="H73" t="n">
-        <v>1.470419872977624e-06</v>
+        <v>0.00355587504264579</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9999985295822892</v>
+        <v>0.9964567244026201</v>
       </c>
       <c r="J73" t="n">
         <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>1.348173311304916e-06</v>
+        <v>0.003384194488161015</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9999986518285159</v>
+        <v>0.9966273000468403</v>
       </c>
       <c r="M73" t="n">
         <v>71</v>
       </c>
       <c r="N73" t="n">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.0005680929884046719</v>
+        <v>-0.05160159413718718</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0009107302915931677</v>
+        <v>0.01510043674822011</v>
       </c>
       <c r="C74" t="n">
-        <v>1.152159307499927e-06</v>
+        <v>0.002890747707485986</v>
       </c>
       <c r="D74" t="n">
-        <v>0.99999884784202</v>
+        <v>0.9971175846281423</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.0006018273123565846</v>
+        <v>-0.05876761917137298</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.001017352143178416</v>
+        <v>0.009562663759884927</v>
       </c>
       <c r="H74" t="n">
-        <v>1.397201497128066e-06</v>
+        <v>0.003545077601256141</v>
       </c>
       <c r="I74" t="n">
-        <v>0.999998602800455</v>
+        <v>0.9964674455782994</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1.224006132994455e-06</v>
+        <v>0.003381253440321622</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9999987759953752</v>
+        <v>0.9966302203239509</v>
       </c>
       <c r="M74" t="n">
         <v>72</v>
       </c>
       <c r="N74" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.0006109541352395018</v>
+        <v>-0.04801858162009428</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.0008361264508070702</v>
+        <v>0.0178693232423877</v>
       </c>
       <c r="C75" t="n">
-        <v>1.072372397105476e-06</v>
+        <v>0.002625096893946593</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999989276287529</v>
+        <v>0.9973817761972258</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.0006018273123565846</v>
+        <v>-0.05865989869019904</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.001017352143178416</v>
+        <v>0.01016076675422953</v>
       </c>
       <c r="H75" t="n">
-        <v>1.397201497128066e-06</v>
+        <v>0.003544224895378271</v>
       </c>
       <c r="I75" t="n">
-        <v>0.999998602800455</v>
+        <v>0.9964682922710777</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1.196454768422082e-06</v>
+        <v>0.003084632383639919</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9999988035466778</v>
+        <v>0.9969250625441479</v>
       </c>
       <c r="M75" t="n">
         <v>73</v>
       </c>
       <c r="N75" t="n">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.0006109541352395018</v>
+        <v>-0.0426979230850419</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.0008361264508070702</v>
+        <v>0.02172360148646679</v>
       </c>
       <c r="C76" t="n">
-        <v>1.072372397105476e-06</v>
+        <v>0.002295027497318976</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9999989276287529</v>
+        <v>0.997710227593317</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.0006018273123565846</v>
+        <v>-0.05865989869019904</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001017352143178416</v>
+        <v>0.01016076675422953</v>
       </c>
       <c r="H76" t="n">
-        <v>1.397201497128066e-06</v>
+        <v>0.003544224895378271</v>
       </c>
       <c r="I76" t="n">
-        <v>0.999998602800455</v>
+        <v>0.9964682922710777</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1.196454768422082e-06</v>
+        <v>0.002919588857656498</v>
       </c>
       <c r="L76" t="n">
-        <v>0.9999988035466778</v>
+        <v>0.9970892970076221</v>
       </c>
       <c r="M76" t="n">
         <v>74</v>
       </c>
       <c r="N76" t="n">
-        <v>761</v>
+        <v>778</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.0006124752723866547</v>
+        <v>-0.03474386540275681</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.0008059221687451794</v>
+        <v>0.02735549310399927</v>
       </c>
       <c r="C77" t="n">
-        <v>1.02463650136004e-06</v>
+        <v>0.001955459186087834</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9999989753645484</v>
+        <v>0.9980483571718086</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.000607911860945196</v>
+        <v>-0.0426979230850419</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.0008965350149308521</v>
+        <v>0.02172360148646679</v>
       </c>
       <c r="H77" t="n">
-        <v>1.173331863674914e-06</v>
+        <v>0.002295027497318976</v>
       </c>
       <c r="I77" t="n">
-        <v>0.999998826669513</v>
+        <v>0.997710227593317</v>
       </c>
       <c r="J77" t="n">
         <v>2</v>
       </c>
       <c r="K77" t="n">
-        <v>1.091559486861641e-06</v>
+        <v>0.002043517499595616</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9999989084417091</v>
+        <v>0.9979606709080809</v>
       </c>
       <c r="M77" t="n">
         <v>75</v>
       </c>
       <c r="N77" t="n">
-        <v>768</v>
+        <v>787</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.0005949191556634906</v>
+        <v>-0.03072644138117404</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.0007384703111236023</v>
+        <v>0.03039572753564474</v>
       </c>
       <c r="C78" t="n">
-        <v>8.992672021863506e-07</v>
+        <v>0.001868014452371876</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999991007336064</v>
+        <v>0.9981354685193807</v>
       </c>
       <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.0426979230850419</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.02172360148646679</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.002295027497318976</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.997710227593317</v>
+      </c>
+      <c r="J78" t="n">
         <v>2</v>
       </c>
-      <c r="F78" t="n">
-        <v>-0.0005183193977290167</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-0.0009284743874210621</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1.130719686159087e-06</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.9999988692815924</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
       <c r="K78" t="n">
-        <v>9.990666323315863e-07</v>
+        <v>0.002017702849638044</v>
       </c>
       <c r="L78" t="n">
-        <v>0.999999000934373</v>
+        <v>0.9979863867775834</v>
       </c>
       <c r="M78" t="n">
         <v>76</v>
       </c>
       <c r="N78" t="n">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.0004579701674790699</v>
+        <v>-0.02474070052924011</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.0008165096475102104</v>
+        <v>0.03473179056023372</v>
       </c>
       <c r="C79" t="n">
-        <v>8.764246787780554e-07</v>
+        <v>0.001818399538197482</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999991235760893</v>
+        <v>0.9981849010369187</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0005183193977290167</v>
+        <v>-0.03476406299297692</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.0009284743874210621</v>
+        <v>0.02724334879255965</v>
       </c>
       <c r="H79" t="n">
-        <v>1.130719686159087e-06</v>
+        <v>0.001950740129212729</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9999988692815924</v>
+        <v>0.9980530578489706</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>9.721706344368481e-07</v>
+        <v>0.001867845907227754</v>
       </c>
       <c r="L79" t="n">
-        <v>0.999999027830321</v>
+        <v>0.9981356389083558</v>
       </c>
       <c r="M79" t="n">
         <v>77</v>
       </c>
       <c r="N79" t="n">
-        <v>795</v>
+        <v>806</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.0006040675852575212</v>
+        <v>-0.02474070052924011</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.0006948774477028636</v>
+        <v>0.03473179056023372</v>
       </c>
       <c r="C80" t="n">
-        <v>8.477523148848985e-07</v>
+        <v>0.001818399538197482</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9999991522484039</v>
+        <v>0.9981849010369187</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.0008686470465761231</v>
+        <v>-0.03076683656161427</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.0005146848014340813</v>
+        <v>0.03017143891276551</v>
       </c>
       <c r="H80" t="n">
-        <v>1.019448136352661e-06</v>
+        <v>0.001856913958075826</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9999989805529029</v>
+        <v>0.9981465277803598</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>9.032129048636413e-07</v>
+        <v>0.001841459037355799</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9999990967879155</v>
+        <v>0.9981619258999673</v>
       </c>
       <c r="M80" t="n">
         <v>78</v>
       </c>
       <c r="N80" t="n">
-        <v>807</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.0006954260523248355</v>
+        <v>-0.02326951230403177</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.0004688388529130234</v>
+        <v>0.03567562592708144</v>
       </c>
       <c r="C81" t="n">
-        <v>7.034272642529045e-07</v>
+        <v>0.001814220488156532</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9999992965732306</v>
+        <v>0.9981890649473187</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.0007121499263363399</v>
+        <v>-0.02975238176110852</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.0006316672758308823</v>
+        <v>0.03098756967639668</v>
       </c>
       <c r="H81" t="n">
-        <v>9.061610649364623e-07</v>
+        <v>0.001845433694908282</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9999990938397563</v>
+        <v>0.9981579656573348</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>8.065047910345954e-07</v>
+        <v>0.001829754668890254</v>
       </c>
       <c r="L81" t="n">
-        <v>0.999999193495867</v>
+        <v>0.9981735874028479</v>
       </c>
       <c r="M81" t="n">
         <v>79</v>
       </c>
       <c r="N81" t="n">
-        <v>816</v>
+        <v>825</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.0004498596009168515</v>
+        <v>-0.02625733333244371</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.0006918782900668294</v>
+        <v>0.03353563049264686</v>
       </c>
       <c r="C82" t="n">
-        <v>6.810692288028687e-07</v>
+        <v>0.001814086066270405</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9999993189312351</v>
+        <v>0.9981891988828052</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0004579701674790699</v>
+        <v>-0.02924515436085564</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.0008165096475102104</v>
+        <v>0.03139563505821227</v>
       </c>
       <c r="H82" t="n">
-        <v>8.764246787780554e-07</v>
+        <v>0.001840964954298721</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9999991235760893</v>
+        <v>0.9981624179698194</v>
       </c>
       <c r="J82" t="n">
         <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>7.50231832001197e-07</v>
+        <v>0.001823895785155071</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9999992497687367</v>
+        <v>0.9981794248590136</v>
       </c>
       <c r="M82" t="n">
         <v>80</v>
       </c>
       <c r="N82" t="n">
-        <v>822</v>
+        <v>834</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.0005726428266208435</v>
+        <v>-0.02476342281823774</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.0005803585714899263</v>
+        <v>0.03460562820986415</v>
       </c>
       <c r="C83" t="n">
-        <v>6.647358783821375e-07</v>
+        <v>0.001810776613474163</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9999993352645635</v>
+        <v>0.9981924963718246</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.0006163578808574249</v>
+        <v>-0.02474070052924011</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.0005703234024506019</v>
+        <v>0.03473179056023372</v>
       </c>
       <c r="H83" t="n">
-        <v>7.051658206778868e-07</v>
+        <v>0.001818399538197482</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9999992948346766</v>
+        <v>0.9981849010369187</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>6.817142750303768e-07</v>
+        <v>0.001815145506404034</v>
       </c>
       <c r="L83" t="n">
-        <v>0.99999931828619</v>
+        <v>0.998188143286018</v>
       </c>
       <c r="M83" t="n">
         <v>81</v>
       </c>
       <c r="N83" t="n">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.0005507852995025529</v>
+        <v>-0.02476342281823774</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.0005853761560095886</v>
+        <v>0.03460562820986415</v>
       </c>
       <c r="C84" t="n">
-        <v>6.460296901726791e-07</v>
+        <v>0.001810776613474163</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9999993539707271</v>
+        <v>0.9981924963718246</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.0005572452800895173</v>
+        <v>-0.02474070052924011</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.0006140239551154471</v>
+        <v>0.03473179056023372</v>
       </c>
       <c r="H84" t="n">
-        <v>6.875477196376612e-07</v>
+        <v>0.001818399538197482</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9999993124527531</v>
+        <v>0.9981849010369187</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>6.577221580327043e-07</v>
+        <v>0.001814520783320797</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9999993422782749</v>
+        <v>0.9981887657502038</v>
       </c>
       <c r="M84" t="n">
         <v>82</v>
@@ -4159,480 +4159,480 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.0005771116095930244</v>
+        <v>-0.02477478396273655</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.0005492019801242366</v>
+        <v>0.03454254703467937</v>
       </c>
       <c r="C85" t="n">
-        <v>6.346806248994338e-07</v>
+        <v>0.001806977476043305</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9999993653197778</v>
+        <v>0.9981962818021133</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.0005507852995025529</v>
+        <v>-0.02624723453733365</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0005853761560095886</v>
+        <v>0.03359170264836667</v>
       </c>
       <c r="H85" t="n">
-        <v>6.460296901726791e-07</v>
+        <v>0.001817319807674085</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9999993539707271</v>
+        <v>0.9981859768525234</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>6.403551575360565e-07</v>
+        <v>0.001810881177507866</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9999993596452526</v>
+        <v>0.9981923922004046</v>
       </c>
       <c r="M85" t="n">
         <v>83</v>
       </c>
       <c r="N85" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.0005902747646382603</v>
+        <v>-0.02031476297922478</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.0005311148921815606</v>
+        <v>0.0311705327480972</v>
       </c>
       <c r="C86" t="n">
-        <v>6.305073264657843e-07</v>
+        <v>0.001384291706702281</v>
       </c>
       <c r="D86" t="n">
-        <v>0.999999369493071</v>
+        <v>0.9986176219078263</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.0005507852995025529</v>
+        <v>-0.02402151695868978</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0005853761560095886</v>
+        <v>0.0351125909906129</v>
       </c>
       <c r="H86" t="n">
-        <v>6.460296901726791e-07</v>
+        <v>0.001809927323070691</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9999993539707271</v>
+        <v>0.9981933425955291</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>6.364745666093328e-07</v>
+        <v>0.001701788575652587</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9999993635258384</v>
+        <v>0.9983011360281887</v>
       </c>
       <c r="M86" t="n">
         <v>84</v>
       </c>
       <c r="N86" t="n">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.0005968563421608782</v>
+        <v>-0.01685944434677805</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.0005220713482102226</v>
+        <v>0.02999023310538541</v>
       </c>
       <c r="C87" t="n">
-        <v>6.287959857997028e-07</v>
+        <v>0.001183654945397462</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9999993712044096</v>
+        <v>0.9988177444372461</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.0005902747646382603</v>
+        <v>-0.02487604305355417</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0005311148921815606</v>
+        <v>0.0344318658056972</v>
       </c>
       <c r="H87" t="n">
-        <v>6.305073264657843e-07</v>
+        <v>0.00180437090086382</v>
       </c>
       <c r="I87" t="n">
-        <v>0.999999369493071</v>
+        <v>0.9981988789894766</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>6.296516561327436e-07</v>
+        <v>0.001345156698930224</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9999993703487403</v>
+        <v>0.9986567203317179</v>
       </c>
       <c r="M87" t="n">
         <v>85</v>
       </c>
       <c r="N87" t="n">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.0006001471309221871</v>
+        <v>-0.01482679441002914</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.0005175495762245537</v>
+        <v>0.02692368512986827</v>
       </c>
       <c r="C88" t="n">
-        <v>6.28034142604348e-07</v>
+        <v>0.0009447186534495612</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9999993719662518</v>
+        <v>0.9990561729975254</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.0005968563421608782</v>
+        <v>-0.01620089454123167</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0005220713482102226</v>
+        <v>0.0302721436471725</v>
       </c>
       <c r="H88" t="n">
-        <v>6.287959857997028e-07</v>
+        <v>0.001178871664931156</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9999993712044096</v>
+        <v>0.998822516437077</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>6.284150642020254e-07</v>
+        <v>0.001104033538566892</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9999993715853307</v>
+        <v>0.9988971931466788</v>
       </c>
       <c r="M88" t="n">
         <v>86</v>
       </c>
       <c r="N88" t="n">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.0006001471309221871</v>
+        <v>-0.01413974434442787</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.0005175495762245537</v>
+        <v>0.02524945587121616</v>
       </c>
       <c r="C89" t="n">
-        <v>6.28034142604348e-07</v>
+        <v>0.0008374673919182721</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9999993719662518</v>
+        <v>0.9991632333728466</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.0005968563421608782</v>
+        <v>-0.01676150901173359</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0005220713482102226</v>
+        <v>0.02831097081989934</v>
       </c>
       <c r="H89" t="n">
-        <v>6.287959857997028e-07</v>
+        <v>0.001082459253115618</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9999993712044096</v>
+        <v>0.9989187111979535</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>6.284150642020254e-07</v>
+        <v>0.0009599633225169452</v>
       </c>
       <c r="L89" t="n">
-        <v>0.9999993715853307</v>
+        <v>0.9990409722854001</v>
       </c>
       <c r="M89" t="n">
         <v>87</v>
       </c>
       <c r="N89" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.0005259026882699579</v>
+        <v>-0.01139088848001312</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.000405184560763709</v>
+        <v>0.02481918606554745</v>
       </c>
       <c r="C90" t="n">
-        <v>4.407481658108483e-07</v>
+        <v>0.00074574433732036</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9999995592520285</v>
+        <v>0.999254811382871</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.0006001471309221871</v>
+        <v>-0.01676150901173359</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0005175495762245537</v>
+        <v>0.02831097081989934</v>
       </c>
       <c r="H90" t="n">
-        <v>6.28034142604348e-07</v>
+        <v>0.001082459253115618</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9999993719662518</v>
+        <v>0.9989187111979535</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>5.810339159993451e-07</v>
+        <v>0.0009370325588674672</v>
       </c>
       <c r="L90" t="n">
-        <v>0.9999994189664282</v>
+        <v>0.9990638667879062</v>
       </c>
       <c r="M90" t="n">
         <v>88</v>
       </c>
       <c r="N90" t="n">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.0005159353553139256</v>
+        <v>-0.008705578214152883</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.0003010257496337915</v>
+        <v>0.0230732936883715</v>
       </c>
       <c r="C91" t="n">
-        <v>3.568057928054927e-07</v>
+        <v>0.0006081639736725773</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9999996431943344</v>
+        <v>0.9993922056649454</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.0006017925253028416</v>
+        <v>-0.01676150901173359</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0005152886902317193</v>
+        <v>0.02831097081989934</v>
       </c>
       <c r="H91" t="n">
-        <v>6.276766777910919e-07</v>
+        <v>0.001082459253115618</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9999993723237163</v>
+        <v>0.9989187111979535</v>
       </c>
       <c r="J91" t="n">
         <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>4.464815465615622e-07</v>
+        <v>0.0007808670991111886</v>
       </c>
       <c r="L91" t="n">
-        <v>0.9999995535186649</v>
+        <v>0.9992197744277295</v>
       </c>
       <c r="M91" t="n">
         <v>89</v>
       </c>
       <c r="N91" t="n">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.0004310403919788533</v>
+        <v>-0.008050137047326454</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.0002675543989286961</v>
+        <v>0.0223079149512007</v>
       </c>
       <c r="C92" t="n">
-        <v>2.573811759033794e-07</v>
+        <v>0.0005624477759507417</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9999997426188904</v>
+        <v>0.9994378683937211</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.0004879577697535161</v>
+        <v>-0.008705578214152883</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0003501324960297038</v>
+        <v>0.0230732936883715</v>
       </c>
       <c r="H92" t="n">
-        <v>3.60695549838816e-07</v>
+        <v>0.0006081639736725773</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9999996393045802</v>
+        <v>0.9993922056649454</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>3.090532287186285e-07</v>
+        <v>0.0005811133941425134</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9999996909468692</v>
+        <v>0.999419224380845</v>
       </c>
       <c r="M92" t="n">
         <v>90</v>
       </c>
       <c r="N92" t="n">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.0004025817030915219</v>
+        <v>-0.00772241646391324</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.0002262653503781922</v>
+        <v>0.02192522558261531</v>
       </c>
       <c r="C93" t="n">
-        <v>2.132680364458364e-07</v>
+        <v>0.0005403512328906871</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9999997867320092</v>
+        <v>0.9994599405888779</v>
       </c>
       <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.01086253851029572</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.02142256218536218</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0005769209134733672</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.9994234117323567</v>
+      </c>
+      <c r="J93" t="n">
         <v>1</v>
       </c>
-      <c r="F93" t="n">
-        <v>-0.0004879577697535161</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-0.0003501324960297038</v>
-      </c>
-      <c r="H93" t="n">
-        <v>3.60695549838816e-07</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.9999996393045802</v>
-      </c>
-      <c r="J93" t="n">
-        <v>3</v>
-      </c>
       <c r="K93" t="n">
-        <v>2.528651944790664e-07</v>
+        <v>0.0005548386687689595</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9999997471348734</v>
+        <v>0.9994454692447975</v>
       </c>
       <c r="M93" t="n">
         <v>91</v>
       </c>
       <c r="N93" t="n">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.0003598936697605247</v>
+        <v>-0.005260840519350003</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.0001643317775524365</v>
+        <v>0.0195921665646169</v>
       </c>
       <c r="C94" t="n">
-        <v>1.565283866472411e-07</v>
+        <v>0.0004115294336657273</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9999998434716378</v>
+        <v>0.9995886398531425</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0003781013157261635</v>
+        <v>-0.01086253851029572</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0002692337534746156</v>
+        <v>0.02142256218536218</v>
       </c>
       <c r="H94" t="n">
-        <v>2.154474189638861e-07</v>
+        <v>0.0005769209134733672</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9999997845526274</v>
+        <v>0.9994234117323567</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>1.996588656713661e-07</v>
+        <v>0.0005122864949804791</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9999998003411749</v>
+        <v>0.9994879795482789</v>
       </c>
       <c r="M94" t="n">
         <v>92</v>
       </c>
       <c r="N94" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.0003385496530950261</v>
+        <v>-0.006113943843633148</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.0001333649911395586</v>
+        <v>0.0145241263018785</v>
       </c>
       <c r="C95" t="n">
-        <v>1.324020884724171e-07</v>
+        <v>0.0002483305541560185</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9999998675979291</v>
+        <v>0.9997517310985978</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0003903415094088427</v>
+        <v>-0.01086253851029572</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0002477495519264039</v>
+        <v>0.02142256218536218</v>
       </c>
       <c r="H95" t="n">
-        <v>2.137463344473075e-07</v>
+        <v>0.0005769209134733672</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9999997862537113</v>
+        <v>0.9994234117323567</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>1.931740945622629e-07</v>
+        <v>0.0003989866959487603</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9999998068259441</v>
+        <v>0.9996011863855221</v>
       </c>
       <c r="M95" t="n">
         <v>93</v>
@@ -4643,40 +4643,40 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.0003082822271943038</v>
+        <v>-0.008074395538337758</v>
       </c>
       <c r="B96" t="n">
-        <v>-8.384563987049725e-05</v>
+        <v>0.01172892324266986</v>
       </c>
       <c r="C96" t="n">
-        <v>1.020680229291735e-07</v>
+        <v>0.00020276350374197</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9999998979319875</v>
+        <v>0.9997972776009618</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.0004025817030915219</v>
+        <v>0.002141708573811969</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0002262653503781922</v>
+        <v>0.01946051753776257</v>
       </c>
       <c r="H96" t="n">
-        <v>2.132680364458364e-07</v>
+        <v>0.0003832986584527044</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9999997867320092</v>
+        <v>0.999616848203117</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1.306113316337998e-07</v>
+        <v>0.0002937797554397747</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9999998693886878</v>
+        <v>0.9997063116630351</v>
       </c>
       <c r="M96" t="n">
         <v>94</v>
@@ -4687,266 +4687,266 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.0002676897358614158</v>
+        <v>-0.008074395538337758</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.126390930107786e-06</v>
+        <v>0.01172892324266986</v>
       </c>
       <c r="C97" t="n">
-        <v>7.165906344208199e-08</v>
+        <v>0.00020276350374197</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9999999283409418</v>
+        <v>0.9997972776009618</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.0004025817030915219</v>
+        <v>-0.001201209982075931</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0002262653503781922</v>
+        <v>0.01867560953392774</v>
       </c>
       <c r="H97" t="n">
-        <v>2.132680364458364e-07</v>
+        <v>0.0003502212968847716</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9999997867320092</v>
+        <v>0.9996499013151308</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>1.224662347367824e-07</v>
+        <v>0.0002855104150477915</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9999998775337833</v>
+        <v>0.9997145749410385</v>
       </c>
       <c r="M97" t="n">
         <v>95</v>
       </c>
       <c r="N97" t="n">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.0002578538659378343</v>
+        <v>-0.009839529038524721</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.839048145992075e-05</v>
+        <v>0.00864803409895834</v>
       </c>
       <c r="C98" t="n">
-        <v>6.682682598741431e-08</v>
+        <v>0.0001716048254767174</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9999999331731784</v>
+        <v>0.9998284246176868</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0003028178550145363</v>
+        <v>-0.008570310774411756</v>
       </c>
       <c r="G98" t="n">
-        <v>-9.34368012759489e-05</v>
+        <v>0.01244838468585388</v>
       </c>
       <c r="H98" t="n">
-        <v>1.004290891482859e-07</v>
+        <v>0.0002284125080569996</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9999998995709211</v>
+        <v>0.9997716396523029</v>
       </c>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>7.643545114129913e-08</v>
+        <v>0.0002003052501216132</v>
       </c>
       <c r="L98" t="n">
-        <v>0.9999999235645549</v>
+        <v>0.9997997353377899</v>
       </c>
       <c r="M98" t="n">
         <v>96</v>
       </c>
       <c r="N98" t="n">
-        <v>985</v>
+        <v>991</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.0002529359309760436</v>
+        <v>-0.01023198286494205</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.702252672482723e-05</v>
+        <v>0.007806390291904738</v>
       </c>
       <c r="C99" t="n">
-        <v>6.470680212931188e-08</v>
+        <v>0.0001656332027380123</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9999999352932021</v>
+        <v>0.9998343942270765</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.0003028178550145363</v>
+        <v>-0.006063121857495832</v>
       </c>
       <c r="G99" t="n">
-        <v>-9.34368012759489e-05</v>
+        <v>0.01303706568873</v>
       </c>
       <c r="H99" t="n">
-        <v>1.004290891482859e-07</v>
+        <v>0.0002067265284311048</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9999998995709211</v>
+        <v>0.9997933161985936</v>
       </c>
       <c r="J99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>7.4167379848581e-08</v>
+        <v>0.0001874808121930512</v>
       </c>
       <c r="L99" t="n">
-        <v>0.9999999258326259</v>
+        <v>0.9998125547038459</v>
       </c>
       <c r="M99" t="n">
         <v>97</v>
       </c>
       <c r="N99" t="n">
-        <v>994</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.0002279949689567972</v>
+        <v>-0.009693040392636488</v>
       </c>
       <c r="B100" t="n">
-        <v>6.184610550733601e-06</v>
+        <v>0.008433769535581174</v>
       </c>
       <c r="C100" t="n">
-        <v>5.201995527727516e-08</v>
+        <v>0.0001650835006325796</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9999999479800474</v>
+        <v>0.9998349437474314</v>
       </c>
       <c r="E100" t="n">
         <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.0002504769634951482</v>
+        <v>-0.006063121857495832</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.133854935728047e-05</v>
+        <v>0.01303706568873</v>
       </c>
       <c r="H100" t="n">
-        <v>6.372081391756852e-08</v>
+        <v>0.0002067265284311048</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9999999362791901</v>
+        <v>0.9997933161985936</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>5.946158959719244e-08</v>
+        <v>0.000179410510504659</v>
       </c>
       <c r="L100" t="n">
-        <v>0.999999940538414</v>
+        <v>0.9998206219328155</v>
       </c>
       <c r="M100" t="n">
         <v>98</v>
       </c>
       <c r="N100" t="n">
-        <v>1007</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.0002167539716876217</v>
+        <v>-0.01046578440834526</v>
       </c>
       <c r="B101" t="n">
-        <v>2.494619050474064e-05</v>
+        <v>0.007439790308213075</v>
       </c>
       <c r="C101" t="n">
-        <v>4.760459666305712e-08</v>
+        <v>0.000164883123112144</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9999999523954055</v>
+        <v>0.9998351440588502</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.0002343510720344672</v>
+        <v>-0.008147552361218941</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.973003349490887e-05</v>
+        <v>0.01042172799031737</v>
       </c>
       <c r="H101" t="n">
-        <v>5.580429985531245e-08</v>
+        <v>0.0001749950237829689</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9999999441957033</v>
+        <v>0.9998250355941173</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K101" t="n">
-        <v>5.280828791273929e-08</v>
+        <v>0.0001691362729369269</v>
       </c>
       <c r="L101" t="n">
-        <v>0.9999999471917149</v>
+        <v>0.9998308923458554</v>
       </c>
       <c r="M101" t="n">
         <v>99</v>
       </c>
       <c r="N101" t="n">
-        <v>1016</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.0002079554215141989</v>
+        <v>-0.0100437427077413</v>
       </c>
       <c r="B102" t="n">
-        <v>5.228430250456539e-05</v>
+        <v>0.00788386956004368</v>
       </c>
       <c r="C102" t="n">
-        <v>4.597910562553706e-08</v>
+        <v>0.0001630321668190899</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9999999540208965</v>
+        <v>0.9998369944083357</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.0002343510720344672</v>
+        <v>-0.009728710085386061</v>
       </c>
       <c r="G102" t="n">
-        <v>-2.973003349490887e-05</v>
+        <v>0.008486679897434617</v>
       </c>
       <c r="H102" t="n">
-        <v>5.580429985531245e-08</v>
+        <v>0.0001666715356070133</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9999999441957033</v>
+        <v>0.9998333562391645</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K102" t="n">
-        <v>5.217829615046572e-08</v>
+        <v>0.0001651041953047148</v>
       </c>
       <c r="L102" t="n">
-        <v>0.9999999478217066</v>
+        <v>0.9998349230614212</v>
       </c>
       <c r="M102" t="n">
         <v>100</v>
       </c>
       <c r="N102" t="n">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
